--- a/biology/Botanique/Jean_Florimond_Boudon_de_Saint-Amans/Jean_Florimond_Boudon_de_Saint-Amans.xlsx
+++ b/biology/Botanique/Jean_Florimond_Boudon_de_Saint-Amans/Jean_Florimond_Boudon_de_Saint-Amans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Florimond Boudon de Saint-Amans né le 24 juin 1748 à Agen où il est mort le 28 octobre 1831, est un historien, littérateur et naturaliste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Saint-Amans voyagea durant sa jeunesse aux Antilles au cours de son service dans les armées du roi. Après une courte carrière militaire, il s’installa, à son retour, dans sa ville natale et participa aux événements révolutionnaires. Il se consacra ensuite tout entier à la science, à l’archéologie et à l’histoire, et produisit de nombreux travaux estimés. De 1791 à 1793, il fut commissaire du roi pour la formation du département qu’il présida ensuite.
 Ami de Ramond, il fut sans doute influencé par le mouvement idéologue, qui à partir de 1795 (loi du 3 brumaire de l’an IV ou 25 octobre 1795) tente de réorganiser l’éducation des enfants et adolescents depuis Paris. Il participa alors à la création de l’École centrale de Lot-et-Garonne, dans sa ville. Après la Révolution, il fut appelé à y professer les sciences naturelles, comme ses amis et confrères Louis Ramond (1753-1827) le fut à celle de Tarbes et François-de-Paule Latapie (1739-1823) à celle de Bordeaux.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fragmens d'un voyage sentimental et pittoresque dans les Pyrénées, ou Lettre écrite de ces montagnes, Metz Devilly, 1789, in-8°
 Rapport fait au conseil du département de Lot-et-Garonne sur les maladies carbunculaires auxquelles les bestiaux sont sujets, principalement dans les années pluvieuses, Agen, 1792, in-8° ; autre Rapport sur le même sujet en 1794
